--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6600 Jubilacion y desahucio/6601 - Jubilacion Patronal y desahucio.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6600 Jubilacion y desahucio/6601 - Jubilacion Patronal y desahucio.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dara Macias\Desktop\FASE II - Ejecucion - Visacom\6000 Pasivos y Patrimonio\6600 Jubilacion y desahucio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\VISACOM\FASE II - Ejecucion\6000 Pasivos y Patrimonio\6600 Jubilacion y desahucio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39508615-99AD-4424-8A5C-588558C23A2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EEE5B1-7D24-4FE1-98DB-164BA425DA76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cedula_Resumen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -157,12 +166,12 @@
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.00\ %"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ ;\(#,##0.00\);\-#\ ;@\ "/>
-    <numFmt numFmtId="167" formatCode="_ \$* #,##0.00_ ;_ \$* \-#,##0.00_ ;_ \$* \-??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0\ ;\(#,##0\);\-#\ ;@\ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="#,##0\ ;\(#,##0\)"/>
-    <numFmt numFmtId="172" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="_ \$* #,##0.00_ ;_ \$* \-#,##0.00_ ;_ \$* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0\ ;\(#,##0\);\-#\ ;@\ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="#,##0\ ;\(#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="0\ %"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -657,8 +666,8 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -677,32 +686,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -711,7 +698,6 @@
     <xf numFmtId="49" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,13 +729,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -758,19 +744,19 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -783,14 +769,14 @@
     <xf numFmtId="49" fontId="18" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="19" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="13" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -800,28 +786,28 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -830,7 +816,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -842,26 +828,26 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -870,19 +856,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -902,6 +879,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -910,6 +918,8 @@
     <cellStyle name="Accent 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Bad 8" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="cf1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Error 9" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Comma 10" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
@@ -919,8 +929,6 @@
     <cellStyle name="Heading 1 14" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Heading 2 15" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Hyperlink 16" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note 17" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Status 18" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1009,7 +1017,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1305,13 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
@@ -1323,574 +1331,571 @@
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="20.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="20.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="77">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="85">
         <v>6601</v>
       </c>
-      <c r="O1" s="77"/>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A2" s="12" t="s">
+      <c r="O1" s="85"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A3" s="12" t="s">
+      <c r="O2" s="84"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="4">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="83">
         <v>44134</v>
       </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A4" s="12" t="s">
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" s="11" customFormat="1">
-      <c r="A5" s="12" t="s">
+      <c r="O4" s="84"/>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="12.75">
-      <c r="N6" s="13"/>
-    </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C7" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E7" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="16" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="12.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="17">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="12.75">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="8">
         <v>44073</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G8" s="9">
         <v>44196</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="17">
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="8">
         <v>43830</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="78"/>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="29" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="78"/>
-    </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A13" s="35" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21">
         <v>40377</v>
       </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <f>D11+E11-F11</f>
+        <v>40377</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="21">
+        <v>40377</v>
+      </c>
+      <c r="K11" s="66">
+        <f>G11-J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
+        <v>7149</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <f>D12+E12-F12</f>
+        <v>7149</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="30">
+        <v>12163</v>
+      </c>
+      <c r="K12" s="66">
+        <f>G12-J12</f>
+        <v>-5014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
         <f>D13+E13-F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="66">
+        <f>G13-J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="33" customFormat="1" ht="12.75">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <f>D14+E14-F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="66">
+        <f>G14-J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="12.75">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
+        <f>D15+E15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+      <c r="K15" s="66">
+        <f>G15-J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42">
+        <f>SUM(D9:D14)</f>
+        <v>47526</v>
+      </c>
+      <c r="E16" s="42">
+        <f>SUM(E9:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="42">
+        <f>SUM(F9:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="43">
+        <f>SUM(G9:G14)</f>
+        <v>47526</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="42">
+        <f>SUM(J9:J14)</f>
+        <v>52540</v>
+      </c>
+      <c r="K16" s="67">
+        <f>SUM(K9:K14)</f>
+        <v>-5014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickTop="1"/>
+    <row r="19" spans="1:15">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="72">
+        <v>44073</v>
+      </c>
+      <c r="E20" s="72">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="47"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="50">
+        <f>D11</f>
         <v>40377</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="30">
+      <c r="E22" s="51">
+        <f>J11</f>
         <v>40377</v>
       </c>
-      <c r="K13" s="78">
-        <f>G13-J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="36" t="s">
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30">
+      <c r="C23" s="70"/>
+      <c r="D23" s="50">
+        <f>D12</f>
         <v>7149</v>
       </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0</v>
-      </c>
-      <c r="G14" s="33">
-        <f>D14+E14-F14</f>
-        <v>7149</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="39">
+      <c r="E23" s="51">
+        <f>J12</f>
         <v>12163</v>
       </c>
-      <c r="K14" s="78">
-        <f>G14-J14</f>
-        <v>-5014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <f>D15+E15-F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="39">
-        <v>0</v>
-      </c>
-      <c r="K15" s="78">
-        <f>G15-J15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="42" customFormat="1" ht="12.75">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33">
-        <f>D16+E16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-      <c r="K16" s="78">
-        <f>G16-J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="12.75">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="33">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="45">
-        <f>D17+E17-F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="33">
-        <v>0</v>
-      </c>
-      <c r="K17" s="78">
-        <f>G17-J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="48" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50" t="s">
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1">
+      <c r="B24" s="52"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickTop="1">
+      <c r="B25" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51">
-        <f>SUM(D11:D16)</f>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56">
+        <f>+SUM(D22:D23)</f>
         <v>47526</v>
       </c>
-      <c r="E18" s="51">
-        <f>SUM(E11:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="51">
-        <f>SUM(F11:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="52">
-        <f>SUM(G11:G16)</f>
-        <v>47526</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="51">
-        <f>SUM(J11:J16)</f>
+      <c r="E25" s="57">
+        <f>+SUM(E22:E23)</f>
         <v>52540</v>
       </c>
-      <c r="K18" s="79">
-        <f>SUM(K11:K16)</f>
-        <v>-5014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickTop="1"/>
-    <row r="21" spans="1:15">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="84">
-        <v>44073</v>
-      </c>
-      <c r="E22" s="84">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="56"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="59">
-        <f>D13</f>
-        <v>40377</v>
-      </c>
-      <c r="E24" s="60">
-        <f>J13</f>
-        <v>40377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="59">
-        <f>D14</f>
-        <v>7149</v>
-      </c>
-      <c r="E25" s="60">
-        <f>J14</f>
-        <v>12163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="B26" s="61"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" thickTop="1">
-      <c r="B27" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65">
-        <f>+SUM(D24:D25)</f>
-        <v>47526</v>
-      </c>
-      <c r="E27" s="66">
-        <f>+SUM(E24:E25)</f>
-        <v>52540</v>
-      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="61"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="64"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="70"/>
+      <c r="A32" s="63"/>
+      <c r="I32" s="64"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="73"/>
+      <c r="A33" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="A34" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="73"/>
+      <c r="A35" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="73"/>
+      <c r="A36" s="63"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="73"/>
+      <c r="A37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="72"/>
-      <c r="I38" s="73"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="72"/>
-      <c r="I39" s="73"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="74" t="s">
+      <c r="A38" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="73"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="86" t="s">
+      <c r="I38" s="64"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="74" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
